--- a/public_html/img/krisair/SIA_App_Challenge - Datasets.xlsx
+++ b/public_html/img/krisair/SIA_App_Challenge - Datasets.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\sia-app-challenge\public_html\img\krisair\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="F1 Collectibles" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -886,7 +886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -974,9 +974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,7 +1275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
@@ -1463,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
